--- a/xlsx/Unihan_intext.xlsx
+++ b/xlsx/Unihan_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
   <si>
     <t>Unihan</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Unihan (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_Unihan</t>
+    <t>政策_政策_美国_Unihan</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E5%AD%97%E4%BD%93%E9%A3%8E%E6%A0%BC</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E8%9F%B2%E6%9B%B8</t>
   </si>
   <si>
-    <t>鳥蟲書</t>
+    <t>鸟虫书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E4%B9%A6</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%99%BD%E6%9B%B8</t>
   </si>
   <si>
-    <t>飛白書</t>
+    <t>飞白书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E7%89%88%E5%8D%B0%E5%88%B7</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>仿宋體</t>
+    <t>仿宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BD%93</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>合體</t>
+    <t>合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E9%AB%94</t>
   </si>
   <si>
-    <t>獨體</t>
+    <t>独体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E9%83%A8%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢字部件</t>
+    <t>汉字部件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E5%AD%97</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>隸變</t>
+    <t>隶变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E5%AE%9A</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%90%8C%E6%BA%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字同源詞</t>
+    <t>汉字同源词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%96%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>右文說</t>
+    <t>右文说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BD%A2%E5%BC%82%E4%B9%89%E8%AF%8D</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>國字標準字體</t>
+    <t>国字标准字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>新加坡漢字</t>
+    <t>新加坡汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣漢字</t>
+    <t>台湾汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E5%AD%97</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語字</t>
+    <t>粤语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%AD%A3%E9%9F%B3%E6%AD%A3%E5%AD%97</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%9B%B8%E5%AF%AB%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣客家語書寫推薦用字</t>
+    <t>台湾客家语书写推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩漢字</t>
+    <t>台闽汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣閩南語推薦用字</t>
+    <t>台湾闽南语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%94%A8%E8%A9%9E</t>
   </si>
   <si>
-    <t>台灣閩南語用詞</t>
+    <t>台湾闽南语用词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>漢字簡化爭論</t>
+    <t>汉字简化争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>繁簡轉換</t>
+    <t>繁简转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>舊字體</t>
+    <t>旧字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%AD%97%E4%BD%93</t>
@@ -527,19 +527,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%BC%B5%E6%96%B0%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>擴張新字體</t>
+    <t>扩张新字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>當用漢字</t>
+    <t>当用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>常用漢字</t>
+    <t>常用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E6%B1%89%E5%AD%97%E4%B9%A6%E5%86%99%E8%A7%84%E5%88%99</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E6%BC%A2%E5%AD%97%E5%80%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>閩南語漢字借音</t>
+    <t>闽南语汉字借音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E5%8F%B7</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%81%87%E5%90%8D</t>
@@ -617,19 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AD%97</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97%E9%9F%B3</t>
   </si>
   <si>
-    <t>朝鮮漢字音</t>
+    <t>朝鲜汉字音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B6%8A%E8%AF%8D</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E9%9F%B3</t>
@@ -731,31 +731,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9F%B3_(%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3)</t>
   </si>
   <si>
-    <t>古音 (日本漢字音)</t>
+    <t>古音 (日本汉字音)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E9%9F%B3</t>
   </si>
   <si>
-    <t>吳音</t>
+    <t>吴音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢音</t>
+    <t>汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>新漢音</t>
+    <t>新汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%9F%B3</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E7%94%A8%E9%9F%B3</t>
   </si>
   <si>
-    <t>慣用音</t>
+    <t>惯用音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3%E7%9A%84%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>日本漢字音的聲調</t>
+    <t>日本汉字音的声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E8%B6%8A%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中日韓越統一表意文字</t>
+    <t>中日韩越统一表意文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%BE%93%E5%85%A5%E6%8A%80%E6%9C%AF</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E5%88%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>錯別字</t>
+    <t>错别字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%AC%94%E5%BF%98%E5%AD%97</t>
@@ -827,25 +827,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>廢除漢字</t>
+    <t>废除汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>漢字復活</t>
+    <t>汉字复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%AC%8E</t>
   </si>
   <si>
-    <t>字謎</t>
+    <t>字谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -881,15 +881,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87</t>
   </si>
   <si>
-    <t>韓文</t>
+    <t>韩文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
   </si>
   <si>
-    <t>越南语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E6%96%87</t>
   </si>
   <si>
@@ -911,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>萬國碼</t>
+    <t>万国码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E7%A2%BC</t>
   </si>
   <si>
-    <t>編碼</t>
+    <t>编码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
@@ -929,33 +926,27 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>正體字</t>
+    <t>正体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>簡體字</t>
+    <t>简体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>日本漢字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>韓國漢字</t>
+    <t>韩国汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%A1%8A%E5%A3%AF%E5%AD%97</t>
   </si>
   <si>
-    <t>方塊壯字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/ISO_2022</t>
   </si>
   <si>
@@ -965,43 +956,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E7%A2%BC</t>
   </si>
   <si>
-    <t>中文資訊交換碼</t>
+    <t>中文资讯交换码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國會圖書館 (美國)</t>
+    <t>国会图书馆 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E5%B0%8F%E7%B5%84</t>
   </si>
   <si>
-    <t>表意文字小組</t>
+    <t>表意文字小组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%8C%84</t>
   </si>
   <si>
-    <t>全錄</t>
+    <t>全录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E7%A2%BC%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>統一碼聯盟</t>
+    <t>统一码联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E5%A4%9A%E6%96%87%E7%A8%AE%E5%B9%B3%E9%9D%A2</t>
   </si>
   <si>
-    <t>基本多文種平面</t>
+    <t>基本多文种平面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode%E7%9B%B8%E5%AE%B9%E5%AD%97%E7%AC%A6</t>
@@ -1019,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A2%9E%E8%A3%9C%E5%AD%97%E7%AC%A6%E9%9B%86</t>
   </si>
   <si>
-    <t>香港增補字符集</t>
+    <t>香港增补字符集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GB_18030</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -1073,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1121,19 +1112,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%BC%A2%E8%AA%9E%E9%80%9A%E7%94%A8%E5%AD%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>現代漢語通用字表</t>
+    <t>现代汉语通用字表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E4%B8%AD%E6%96%87%E4%BA%A4%E6%8F%9B%E7%A2%BC</t>
   </si>
   <si>
-    <t>國家標準中文交換碼</t>
+    <t>国家标准中文交换码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>計量用漢字</t>
+    <t>计量用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JIS_X_0208</t>
@@ -1151,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國國會圖書館</t>
+    <t>美国国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ANSI</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%94%E7%A2%BC</t>
   </si>
   <si>
-    <t>大五碼</t>
+    <t>大五码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GB_12052</t>
@@ -1181,43 +1172,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80A</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區A</t>
+    <t>中日韩统一表意文字扩展区A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E5%A4%A7%E5%AD%97%E5%85%B8</t>
   </si>
   <si>
-    <t>漢語大字典</t>
+    <t>汉语大字典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80B</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區B</t>
+    <t>中日韩统一表意文字扩展区B</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%BA%90</t>
   </si>
   <si>
-    <t>辭源</t>
+    <t>辞源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>辭海</t>
+    <t>辞海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E5%A4%A7%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>漢語大詞典</t>
+    <t>汉语大词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中國大百科全書</t>
+    <t>中国大百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%AD%A3%E9%9B%86%E5%9B%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%BA%AB%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>四庫全書</t>
+    <t>四库全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KPS_9566</t>
@@ -1247,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80C</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區C</t>
+    <t>中日韩统一表意文字扩展区C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -1259,13 +1250,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>商務印書館</t>
+    <t>商务印书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%BC%A2%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>現代漢語詞典</t>
+    <t>现代汉语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%8C%83%E5%85%8B</t>
@@ -1277,13 +1268,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>耶穌基督後期聖徒教會</t>
+    <t>耶稣基督后期圣徒教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%9F%BB</t>
   </si>
   <si>
-    <t>廣韻</t>
+    <t>广韵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%B5%E7%8E%89%E8%A3%81</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80D</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區D</t>
+    <t>中日韩统一表意文字扩展区D</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%85%AC%E5%AE%89%E9%83%A8</t>
@@ -1319,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國教育部</t>
+    <t>中华民国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A9%B1</t>
   </si>
   <si>
-    <t>臺灣話</t>
+    <t>台湾话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%BB%8F%E6%B5%8E%E4%BA%A7%E4%B8%9A%E7%9C%81</t>
@@ -1337,31 +1328,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80E</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區E</t>
+    <t>中日韩统一表意文字扩展区E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
   </si>
   <si>
-    <t>中国大百科全书</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%B1%89%E8%AF%AD%E8%AF%8D%E5%85%B8</t>
   </si>
   <si>
-    <t>现代汉语词典</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%A6%8F%E7%AF%84%E6%BC%A2%E5%AD%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>通用規範漢字表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80F</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區F</t>
+    <t>中日韩统一表意文字扩展区F</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%B1%89%E8%AF%AD%E8%A7%84%E8%8C%83%E8%AF%8D%E5%85%B8</t>
@@ -1373,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%AD%A3%E6%96%B0%E4%BF%AE%E5%A4%A7%E8%97%8F%E7%B6%93</t>
   </si>
   <si>
-    <t>大正新修大藏經</t>
+    <t>大正新修大藏经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Big5</t>
@@ -1391,9 +1373,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>異體字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AD%97%E4%BD%93</t>
   </si>
   <si>
@@ -1403,31 +1382,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E9%80%9A%E7%94%A8%E6%BC%A2%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
   </si>
   <si>
-    <t>印刷通用漢字字形表</t>
+    <t>印刷通用汉字字形表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%98%93%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>中易宋體</t>
+    <t>中易宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E9%9B%85%E9%BB%91%E9%AB%94</t>
   </si>
   <si>
-    <t>微軟雅黑體</t>
+    <t>微软雅黑体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E5%BC%8F%E5%BA%AB</t>
   </si>
   <si>
-    <t>函式庫</t>
+    <t>函式库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SQLite</t>
@@ -1457,27 +1436,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁瀏覽器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>語言代碼</t>
+    <t>语言代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%B5%B1%E4%B8%80%E6%BC%A2%E5%AD%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>未統一漢字列表</t>
+    <t>未统一汉字列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%8A%A9%E5%B9%B3%E9%9D%A2</t>
   </si>
   <si>
-    <t>輔助平面</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Office</t>
   </si>
   <si>
@@ -1487,9 +1460,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
-    <t>表意文字小组</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Windows_XP</t>
   </si>
   <si>
@@ -1499,13 +1469,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%B0%E6%98%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>新細明體</t>
+    <t>新细明体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E6%98%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>細明體</t>
+    <t>细明体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode</t>
@@ -1529,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%A0%B8%E5%BF%83</t>
   </si>
   <si>
-    <t>國際表意文字核心</t>
+    <t>国际表意文字核心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Unicode_related</t>
@@ -1547,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/Unicode%E6%8A%80%E8%A1%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>Unicode技術委員會</t>
+    <t>Unicode技术委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTF-7</t>
@@ -1583,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/Unicode%E5%8D%80%E6%AE%B5</t>
   </si>
   <si>
-    <t>Unicode區段</t>
+    <t>Unicode区段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E7%AC%A6%E7%BC%96%E7%A0%81</t>
@@ -1607,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%AF%E9%9B%BB%E7%A2%BC</t>
   </si>
   <si>
-    <t>摩斯電碼</t>
+    <t>摩斯电码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E9%9B%BB%E7%A2%BC</t>
   </si>
   <si>
-    <t>中文電碼</t>
+    <t>中文电码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO/IEC_8859</t>
@@ -1727,19 +1697,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E6%A8%99%E6%BA%96%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>亞美尼亞資訊交換標準代碼</t>
+    <t>亚美尼亚资讯交换标准代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E6%A8%99%E6%BA%96%E4%BA%A4%E6%8F%9B%E7%A2%BC</t>
   </si>
   <si>
-    <t>中文標準交換碼</t>
+    <t>中文标准交换码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%96%87%E5%AD%97%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E7%A2%BC</t>
   </si>
   <si>
-    <t>印度文字資訊交換碼</t>
+    <t>印度文字资讯交换码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JIS_X_0201</t>
@@ -1757,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E7%88%BE%E6%96%87%E5%AD%97%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E7%A2%BC</t>
   </si>
   <si>
-    <t>泰米爾文字資訊交換碼</t>
+    <t>泰米尔文字资讯交换码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E6%A8%99%E6%BA%96%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>越南資訊交換標準代碼</t>
+    <t>越南资讯交换标准代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EUC</t>
@@ -1799,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%A2%BC%E9%A0%81437</t>
   </si>
   <si>
-    <t>代碼頁437</t>
+    <t>代码页437</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%A0%81%E9%A1%B5932</t>
@@ -1811,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%A2%BC%E9%A0%81936</t>
   </si>
   <si>
-    <t>代碼頁936</t>
+    <t>代码页936</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GBK</t>
@@ -1823,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%A2%BC%E9%A0%81950</t>
   </si>
   <si>
-    <t>代碼頁950</t>
+    <t>代码页950</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Windows-1252</t>
@@ -1931,13 +1901,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E5%9C%8D%E7%B9%9E%E5%AD%97%E5%85%83%E5%8F%8A%E6%9C%88%E4%BB%BD</t>
   </si>
   <si>
-    <t>中日韓圍繞字元及月份</t>
+    <t>中日韩围绕字元及月份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%9B%B8%E5%AE%B9%E5%AD%97%E5%85%83</t>
   </si>
   <si>
-    <t>中日韓相容字元</t>
+    <t>中日韩相容字元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%A9%E5%85%BC%E5%AE%B9%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
@@ -1961,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%9B%B8%E5%AE%B9%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E8%A3%9C%E5%85%85%E5%8D%80</t>
   </si>
   <si>
-    <t>中日韓相容表意文字補充區</t>
+    <t>中日韩相容表意文字补充区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_CJK_Unified_Ideographs,_part_1_of_4</t>
@@ -6588,7 +6558,7 @@
         <v>289</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6614,10 +6584,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6643,10 +6613,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>55</v>
@@ -6672,10 +6642,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>13</v>
@@ -6701,10 +6671,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6730,10 +6700,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>30</v>
@@ -6759,10 +6729,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>55</v>
@@ -6788,10 +6758,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6817,10 +6787,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6846,10 +6816,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>120</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6875,10 +6845,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6933,10 +6903,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6962,10 +6932,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6991,10 +6961,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7020,10 +6990,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7049,10 +7019,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7078,10 +7048,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7107,10 +7077,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>4</v>
@@ -7136,10 +7106,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7165,10 +7135,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -7194,10 +7164,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>11</v>
@@ -7223,10 +7193,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7252,10 +7222,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7281,10 +7251,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7310,10 +7280,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7339,10 +7309,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7368,10 +7338,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>12</v>
@@ -7397,10 +7367,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>31</v>
@@ -7426,10 +7396,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7455,10 +7425,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7484,10 +7454,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>5</v>
@@ -7513,10 +7483,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7542,10 +7512,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7571,10 +7541,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>15</v>
@@ -7600,10 +7570,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F181" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7629,10 +7599,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>12</v>
@@ -7658,10 +7628,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>23</v>
@@ -7687,10 +7657,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7716,10 +7686,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7745,10 +7715,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7774,10 +7744,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7803,10 +7773,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7832,10 +7802,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7861,10 +7831,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7890,10 +7860,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -7919,10 +7889,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7948,10 +7918,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7977,10 +7947,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8006,10 +7976,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8035,10 +8005,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -8064,10 +8034,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8093,10 +8063,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8122,10 +8092,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8151,10 +8121,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>5</v>
@@ -8209,10 +8179,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8267,10 +8237,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G204" t="n">
         <v>11</v>
@@ -8296,10 +8266,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8325,10 +8295,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8354,10 +8324,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8383,10 +8353,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8412,10 +8382,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8441,10 +8411,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8470,10 +8440,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F211" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8499,10 +8469,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8528,10 +8498,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F213" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G213" t="n">
         <v>5</v>
@@ -8557,10 +8527,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8586,10 +8556,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>8</v>
@@ -8615,10 +8585,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8644,10 +8614,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8673,10 +8643,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8702,10 +8672,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F219" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G219" t="n">
         <v>17</v>
@@ -8731,10 +8701,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8760,10 +8730,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8789,10 +8759,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8818,10 +8788,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8847,10 +8817,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8876,10 +8846,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G225" t="n">
         <v>7</v>
@@ -8905,10 +8875,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8934,10 +8904,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8963,10 +8933,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8992,10 +8962,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9021,10 +8991,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9050,10 +9020,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9079,10 +9049,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9108,10 +9078,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9137,10 +9107,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9166,10 +9136,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9224,10 +9194,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9253,10 +9223,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9282,10 +9252,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G239" t="n">
         <v>4</v>
@@ -9311,10 +9281,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9340,10 +9310,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>74</v>
       </c>
       <c r="G241" t="n">
         <v>5</v>
@@ -9369,10 +9339,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9398,10 +9368,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9427,10 +9397,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9456,10 +9426,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9485,10 +9455,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>6</v>
@@ -9514,10 +9484,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9543,10 +9513,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9572,10 +9542,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9601,10 +9571,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9630,10 +9600,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9659,10 +9629,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9688,10 +9658,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9717,10 +9687,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9746,10 +9716,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9775,10 +9745,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="G256" t="n">
         <v>5</v>
@@ -9804,10 +9774,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9833,10 +9803,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>319</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9862,10 +9832,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9891,10 +9861,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9920,10 +9890,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G261" t="n">
         <v>4</v>
@@ -9949,10 +9919,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G262" t="n">
         <v>60</v>
@@ -9978,10 +9948,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G263" t="n">
         <v>32</v>
@@ -10007,10 +9977,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10036,10 +10006,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F265" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10065,10 +10035,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10094,10 +10064,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G267" t="n">
         <v>6</v>
@@ -10123,10 +10093,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10152,10 +10122,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F269" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10181,10 +10151,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10210,10 +10180,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10239,10 +10209,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10268,10 +10238,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10297,10 +10267,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10326,10 +10296,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10355,10 +10325,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10413,10 +10383,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F278" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10442,10 +10412,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F279" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10471,10 +10441,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F280" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10500,10 +10470,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F281" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10529,10 +10499,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10558,10 +10528,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10587,10 +10557,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10616,10 +10586,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>37</v>
@@ -10645,10 +10615,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>11</v>
@@ -10674,10 +10644,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>4</v>
@@ -10703,10 +10673,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G288" t="n">
         <v>4</v>
@@ -10732,10 +10702,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F289" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G289" t="n">
         <v>4</v>
@@ -10761,10 +10731,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F290" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G290" t="n">
         <v>5</v>
@@ -10790,10 +10760,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F291" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -10819,10 +10789,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G292" t="n">
         <v>14</v>
@@ -10848,10 +10818,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F293" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G293" t="n">
         <v>6</v>
@@ -10877,10 +10847,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10906,10 +10876,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10935,10 +10905,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10964,10 +10934,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10993,10 +10963,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11022,10 +10992,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11051,10 +11021,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11080,10 +11050,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11109,10 +11079,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11138,10 +11108,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F303" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G303" t="n">
         <v>24</v>
@@ -11167,10 +11137,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F304" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G304" t="n">
         <v>5</v>
@@ -11196,10 +11166,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F305" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11225,10 +11195,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F306" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11254,10 +11224,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F307" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11283,10 +11253,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F308" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11312,10 +11282,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11341,10 +11311,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11370,10 +11340,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11399,10 +11369,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -11428,10 +11398,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G313" t="n">
         <v>28</v>
@@ -11457,10 +11427,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F314" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11486,10 +11456,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F315" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G315" t="n">
         <v>4</v>
@@ -11515,10 +11485,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F316" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11544,10 +11514,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F317" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11573,10 +11543,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F318" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11602,10 +11572,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F319" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11631,10 +11601,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F320" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11660,10 +11630,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F321" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11689,10 +11659,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11718,10 +11688,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F323" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11747,10 +11717,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F324" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11776,10 +11746,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F325" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11805,10 +11775,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F326" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -11834,10 +11804,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F327" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11863,10 +11833,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11892,10 +11862,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11921,10 +11891,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11950,10 +11920,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11979,10 +11949,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G332" t="n">
         <v>6</v>
@@ -12008,10 +11978,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F333" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12037,10 +12007,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F334" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12066,10 +12036,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F335" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G335" t="n">
         <v>3</v>
@@ -12095,10 +12065,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F336" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12124,10 +12094,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F337" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12153,10 +12123,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F338" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12182,10 +12152,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F339" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12240,10 +12210,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F341" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12269,10 +12239,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F342" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G342" t="n">
         <v>29</v>
@@ -12298,10 +12268,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F343" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12327,10 +12297,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F344" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G344" t="n">
         <v>3</v>
@@ -12356,10 +12326,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F345" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G345" t="n">
         <v>5</v>
@@ -12385,10 +12355,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F346" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12414,10 +12384,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F347" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12443,10 +12413,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F348" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12472,10 +12442,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F349" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12501,10 +12471,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F350" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12530,10 +12500,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F351" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12559,10 +12529,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F352" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12588,10 +12558,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F353" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12617,10 +12587,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F354" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12646,10 +12616,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F355" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12675,10 +12645,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F356" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12704,10 +12674,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F357" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12733,10 +12703,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F358" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12762,10 +12732,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F359" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -12791,10 +12761,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F360" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12820,10 +12790,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F361" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12849,10 +12819,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F362" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12878,10 +12848,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F363" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -12907,10 +12877,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F364" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -12936,10 +12906,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F365" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -12965,10 +12935,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F366" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -12994,10 +12964,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F367" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G367" t="n">
         <v>15</v>
@@ -13023,10 +12993,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F368" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G368" t="n">
         <v>14</v>
@@ -13052,10 +13022,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F369" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13081,10 +13051,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F370" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13168,10 +13138,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F373" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G373" t="n">
         <v>8</v>
@@ -13197,10 +13167,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F374" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
